--- a/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
+++ b/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="351">
   <si>
     <t>PracticeDilemmas</t>
   </si>
@@ -133,9 +133,6 @@
   <si>
     <t>The 3 skydivers on the left died.
 The 4 skydivers on the right were saved.</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine what course of action you will take.</t>
   </si>
   <si>
     <t>Skydivers on right: 8</t>
@@ -478,95 +475,12 @@
 The 7 repairmen on the track were saved.</t>
   </si>
   <si>
-    <t>• You are working in the kitchen of a café, and see a terrorist throw a grenade next to the main dining room, in which a number of customers are eating
-• If nothing is done the grenade will explode and the walls of the main dining room will collapse and kill these customers</t>
-  </si>
-  <si>
-    <t>Customers in main
-dining room: 6</t>
-  </si>
-  <si>
-    <t>Probability customers
-will be spared: 35%</t>
-  </si>
-  <si>
-    <t>Plan: Throw the grenade onto the patio, killing the customers there
-Do nothing: The customers on the patio will live, the group in the dining room has a chance of surviving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 3 customers on the patio lived.
-The </t>
-  </si>
-  <si>
-    <t>The 3 customers on the patio died.
-The 6 customers in the main dining room were saved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> customers in the main dining room</t>
-  </si>
-  <si>
-    <t>Customers on the patio: 3</t>
-  </si>
-  <si>
-    <t>• There is only one other location the grenade could be thrown before it explodes, and that is the patio outside of the main dining room
-• There are other customers sitting on the patio, and they would certainly be killed if the grenade is thrown there</t>
-  </si>
-  <si>
-    <t>Customers in main
-dining room: 14</t>
-  </si>
-  <si>
-    <t>Probability customers
-will be spared: 50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 7 customers on the patio lived.
-The </t>
-  </si>
-  <si>
-    <t>The 7 customers on the patio died.
-The 14 customers in the main dining room were saved.</t>
-  </si>
-  <si>
-    <t>Customers on the patio: 7</t>
-  </si>
-  <si>
-    <t>• You have time to run out and throw the grenade to the patio, without risking any harm to yourself</t>
-  </si>
-  <si>
-    <t>Customers in main
-dining room: 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 2 customers on the patio lived.
-The </t>
-  </si>
-  <si>
     <t>The 2 customers on the patio died.
 The 5 customers in the main dining room were saved.</t>
   </si>
   <si>
-    <t>Customers on the patio: 2</t>
-  </si>
-  <si>
-    <t>• If you do this, the customers in the dining room will live but the customers on the patio will die 
-• You also know that there is a chance that the dining room walls will withstand the blast of the grenade explosion, and the customers would be spared</t>
-  </si>
-  <si>
-    <t>Customers in main
-dining room: 7</t>
-  </si>
-  <si>
-    <t>Probability customers
-will be spared: 65%</t>
-  </si>
-  <si>
     <t>The 2 customers on the patio died.
 The 7 customers in the main dining room were saved.</t>
-  </si>
-  <si>
-    <t>Customers in main
-dining room: 9</t>
   </si>
   <si>
     <t>The 7 customers on the patio died.
@@ -1251,6 +1165,177 @@
   <si>
     <t>Probability the people in the car 
 will be able to escape in time: 65%</t>
+  </si>
+  <si>
+    <t>Scientists at the 
+north end of lake: 6</t>
+  </si>
+  <si>
+    <t>Probability scientists will
+get out of the water: 35%</t>
+  </si>
+  <si>
+    <t>• There is a group of ice fishermen towards the north side of a large frozen lake
+• A group of scientists are on the south side of the lake drilling ice cores</t>
+  </si>
+  <si>
+    <t>Plan: Drive to the scientists, causing the fishermen to fall into the water and die
+Do nothing: The fishermen will live,  the scientists may get out of the water in time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 3 fishermen on the south end lived.
+The   </t>
+  </si>
+  <si>
+    <t>The 3 fishermen on the south end died.
+The 6 scientists on the north end were saved.</t>
+  </si>
+  <si>
+    <t>scientists at the north end of the lake</t>
+  </si>
+  <si>
+    <t>dis</t>
+  </si>
+  <si>
+    <t>Fishermen on the south end: 3</t>
+  </si>
+  <si>
+    <t>Scientists at the 
+north end of lake: 14</t>
+  </si>
+  <si>
+    <t>Probability scientists will
+get out of the water: 50%</t>
+  </si>
+  <si>
+    <t>•The scientists sent out a distress call because the ice around them started to shatter and they have fallen into the freezing water
+• You are an emergency worker who has been called to rescue the scientists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 7 fishermen on the south end lived.
+The   </t>
+  </si>
+  <si>
+    <t>The 7 fishermen on the south end died.
+The 14 scientists on the north end were saved.</t>
+  </si>
+  <si>
+    <t>EQUAL</t>
+  </si>
+  <si>
+    <t>Fishermen on the south end: 7</t>
+  </si>
+  <si>
+    <t>Scientists at the 
+north end of lake: 5</t>
+  </si>
+  <si>
+    <t>• To reach the scientists in time, you would need to drive a vehicle across the ice, past the fishermen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2 fishermen on the south end lived.
+The   </t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Fishermen on the south end: 2</t>
+  </si>
+  <si>
+    <t>Scientists at the 
+north end of lake: 7</t>
+  </si>
+  <si>
+    <t>Probability scientists will
+get out of the water: 65%</t>
+  </si>
+  <si>
+    <t>• If you do this, the weight of the vehicle would cause the ice to crack around the fishermen, causing them to fall into the water and die from the cold
+• You also know that there is a chance that the scientists may be able to climb out of the freezing water before going into shock and dying</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>Scientists at the 
+north end of lake: 9</t>
+  </si>
+  <si>
+    <t>Probability  scientists will
+get out of the water: 50%</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Hit the button to divert the gas to Room B, killing the workers there
+OR
+Do nothing: The workers in Room B will live, the group on Room A has a chance of escaping.</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan:  Direct your crew to the right, repositioning the trampoline and leaving the skydivers on the left to die 
+OR
+Do nothing: The skydivers on the left will live, the group on the right  has a chance of surviving</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Move your crane to push the bus, certainly killing the people in the car
+OR
+Do nothing: The people in the car will live, the people in the bus have a chance of surviving</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Change your course to head towards the people in the west, leaving the people in the east to die
+OR
+Do nothing: The group in the east will live, the group in the west has a chance of surviving</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Hit the switch, redirecting the boxcar onto the sidetrack, killing the repairmen there
+OR
+Do nothing: The repairmen on the sidetrack will live, the repairmen on the main track have a chance of evacuating</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Drive to the scientists, causing the fishermen to fall into the water and die
+OR
+Do nothing: The fishermen will live,  the scientists may get out of the water in time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Cut the green wire, blowing up the family in the home
+OR
+Do nothing: The family will live, the office workers have a chance of surviving if the Bomb Squad comes </t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Open the hatch, killing the crewmembers there
+OR
+Do nothing: The crewmembers in the lower section will live, the passengers have a chance of escape</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Throw the bait to the left, leaving the zookeepers to die
+OR
+Do nothing: The zookeepers will live, the tourists have a chance of escaping up the ladder</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Plan: Throw the rock, redirecting the wire and killing the pedestrians
+OR
+Do nothing: The pedestrians will live, the people in the swimming pool have a chance of surviving if the wire is caught</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will
+Implement the plan: Push the pedestrians over, causing them to hit the train and die
+OR
+Do nothing: The pedestrians will live, the people in the car have a chance of surviving</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Push the button, putting out the fire but killing the astronauts
+OR
+Do nothing: The astronauts will live, the engineers have a chance of surviving</t>
   </si>
 </sst>
 </file>
@@ -2060,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2170,7 +2255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2202,7 +2287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2234,12 +2319,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
@@ -2248,10 +2333,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2263,27 +2348,27 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2292,30 +2377,30 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -2324,30 +2409,30 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2356,30 +2441,30 @@
         <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -2388,30 +2473,30 @@
         <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -2420,30 +2505,30 @@
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2452,30 +2537,30 @@
         <v>50</v>
       </c>
       <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
         <v>66</v>
       </c>
-      <c r="J12" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -2484,30 +2569,30 @@
         <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -2516,30 +2601,30 @@
         <v>35</v>
       </c>
       <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
         <v>66</v>
       </c>
-      <c r="J14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -2548,30 +2633,30 @@
         <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="375" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -2580,30 +2665,30 @@
         <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
         <v>86</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2612,30 +2697,30 @@
         <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
         <v>91</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -2644,30 +2729,30 @@
         <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -2676,30 +2761,30 @@
         <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="G20">
         <v>8</v>
@@ -2708,30 +2793,30 @@
         <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -2740,30 +2825,30 @@
         <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>106</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -2772,30 +2857,30 @@
         <v>50</v>
       </c>
       <c r="I22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" t="s">
         <v>110</v>
       </c>
-      <c r="J22" t="s">
+    </row>
+    <row r="23" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>113</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -2804,30 +2889,30 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
         <v>110</v>
       </c>
-      <c r="J23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
         <v>116</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2836,30 +2921,30 @@
         <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
         <v>121</v>
       </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2868,30 +2953,30 @@
         <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -2900,30 +2985,30 @@
         <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>314</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>130</v>
+        <v>313</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2932,30 +3017,39 @@
         <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="K27">
+        <v>2.1</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>323</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>140</v>
+        <v>325</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -2964,30 +3058,39 @@
         <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="J28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>130</v>
+        <v>313</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -2996,30 +3099,39 @@
         <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="K29">
+        <v>2.5</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>335</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -3028,30 +3140,39 @@
         <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="390" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
+        <v>336</v>
+      </c>
+      <c r="K30">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G31">
         <v>9</v>
@@ -3060,30 +3181,39 @@
         <v>65</v>
       </c>
       <c r="I31" t="s">
+        <v>318</v>
+      </c>
+      <c r="J31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K31">
+        <v>5.85</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="J31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="390" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -3092,30 +3222,30 @@
         <v>65</v>
       </c>
       <c r="I32" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -3124,30 +3254,30 @@
         <v>65</v>
       </c>
       <c r="I33" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="G34">
         <v>13</v>
@@ -3156,30 +3286,30 @@
         <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G35">
         <v>9</v>
@@ -3188,30 +3318,30 @@
         <v>35</v>
       </c>
       <c r="I35" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="390" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -3220,30 +3350,30 @@
         <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="G37">
         <v>8</v>
@@ -3252,30 +3382,30 @@
         <v>35</v>
       </c>
       <c r="I37" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -3284,30 +3414,30 @@
         <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="G39">
         <v>7</v>
@@ -3316,30 +3446,30 @@
         <v>50</v>
       </c>
       <c r="I39" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G40">
         <v>9</v>
@@ -3348,30 +3478,30 @@
         <v>65</v>
       </c>
       <c r="I40" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="375" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>33</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -3380,30 +3510,30 @@
         <v>50</v>
       </c>
       <c r="I41" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="G42">
         <v>11</v>
@@ -3412,30 +3542,30 @@
         <v>35</v>
       </c>
       <c r="I42" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -3444,30 +3574,30 @@
         <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -3476,30 +3606,30 @@
         <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="G45">
         <v>8</v>
@@ -3508,30 +3638,30 @@
         <v>65</v>
       </c>
       <c r="I45" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -3540,30 +3670,30 @@
         <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="G47">
         <v>13</v>
@@ -3572,30 +3702,30 @@
         <v>65</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="G48">
         <v>9</v>
@@ -3604,30 +3734,30 @@
         <v>50</v>
       </c>
       <c r="I48" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -3636,30 +3766,30 @@
         <v>35</v>
       </c>
       <c r="I49" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -3668,30 +3798,30 @@
         <v>65</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>33</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -3700,30 +3830,30 @@
         <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -3732,30 +3862,30 @@
         <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="J52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -3764,30 +3894,30 @@
         <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="J53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G54">
         <v>7</v>
@@ -3796,30 +3926,30 @@
         <v>65</v>
       </c>
       <c r="I54" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="J54" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="G55">
         <v>8</v>
@@ -3828,30 +3958,30 @@
         <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="J55" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -3860,30 +3990,30 @@
         <v>65</v>
       </c>
       <c r="I56" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="J56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="G57">
         <v>10</v>
@@ -3892,30 +4022,30 @@
         <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="J57" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="G58">
         <v>8</v>
@@ -3924,30 +4054,30 @@
         <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="J58" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -3956,30 +4086,30 @@
         <v>65</v>
       </c>
       <c r="I59" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="J59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -3988,30 +4118,30 @@
         <v>35</v>
       </c>
       <c r="I60" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="J60" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="330" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>241</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G61">
         <v>10</v>
@@ -4020,30 +4150,30 @@
         <v>35</v>
       </c>
       <c r="I61" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="J61" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B62" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="G62">
         <v>10</v>
@@ -4052,30 +4182,30 @@
         <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="J62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="G63">
         <v>6</v>
@@ -4084,30 +4214,30 @@
         <v>65</v>
       </c>
       <c r="I63" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="J63" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="G64">
         <v>8</v>
@@ -4116,30 +4246,30 @@
         <v>65</v>
       </c>
       <c r="I64" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="J64" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B65" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="G65">
         <v>11</v>
@@ -4148,30 +4278,30 @@
         <v>35</v>
       </c>
       <c r="I65" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="J65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="315" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>241</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="G66">
         <v>7</v>
@@ -4180,10 +4310,10 @@
         <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="J66" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
+++ b/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
@@ -475,18 +475,6 @@
 The 7 repairmen on the track were saved.</t>
   </si>
   <si>
-    <t>The 2 customers on the patio died.
-The 5 customers in the main dining room were saved.</t>
-  </si>
-  <si>
-    <t>The 2 customers on the patio died.
-The 7 customers in the main dining room were saved.</t>
-  </si>
-  <si>
-    <t>The 7 customers on the patio died.
-The 9 customers in the main dining room were saved.</t>
-  </si>
-  <si>
     <t>• There has been a bomb planted in two buildings, drawing from the same set of wires
 • You are a citizen who has found the wires that control the bomb</t>
   </si>
@@ -761,10 +749,6 @@
 will function: 35%</t>
   </si>
   <si>
-    <t xml:space="preserve">The 2 close scuba divers were saved.
-The  </t>
-  </si>
-  <si>
     <t>The 2 close scuba divers died.
 The 10 far scuba divers were saved.</t>
   </si>
@@ -790,10 +774,6 @@
 will function: 50%</t>
   </si>
   <si>
-    <t xml:space="preserve">The 5 close scuba divers were saved.
-The  </t>
-  </si>
-  <si>
     <t>The 5 close scuba divers died.
 The 7 far scuba divers were saved.</t>
   </si>
@@ -804,10 +784,6 @@
     <t>Scuba divers in team: 8</t>
   </si>
   <si>
-    <t xml:space="preserve">The 6 close scuba divers were saved.
-The  </t>
-  </si>
-  <si>
     <t>The 6 close scuba divers died.
 The 8 far scuba divers were saved.</t>
   </si>
@@ -821,10 +797,6 @@
     <t>Scuba divers in team: 6</t>
   </si>
   <si>
-    <t xml:space="preserve">The 4 close scuba divers were saved.
-The  </t>
-  </si>
-  <si>
     <t>The 4 close scuba divers died.
 The 6 far scuba divers were saved.</t>
   </si>
@@ -851,9 +823,6 @@
 The 10 people in the car were saved.</t>
   </si>
   <si>
-    <t>people in the car</t>
-  </si>
-  <si>
     <t>Pedestrians on the bridge: 5</t>
   </si>
   <si>
@@ -920,9 +889,6 @@
 The 10 engineers were saved.</t>
   </si>
   <si>
-    <t>engineers</t>
-  </si>
-  <si>
     <t>Astronauts in outer space: 7</t>
   </si>
   <si>
@@ -1183,17 +1149,10 @@
 Do nothing: The fishermen will live,  the scientists may get out of the water in time</t>
   </si>
   <si>
-    <t xml:space="preserve">The 3 fishermen on the south end lived.
-The   </t>
-  </si>
-  <si>
     <t>The 3 fishermen on the south end died.
 The 6 scientists on the north end were saved.</t>
   </si>
   <si>
-    <t>scientists at the north end of the lake</t>
-  </si>
-  <si>
     <t>dis</t>
   </si>
   <si>
@@ -1212,10 +1171,6 @@
 • You are an emergency worker who has been called to rescue the scientists</t>
   </si>
   <si>
-    <t xml:space="preserve">The 7 fishermen on the south end lived.
-The   </t>
-  </si>
-  <si>
     <t>The 7 fishermen on the south end died.
 The 14 scientists on the north end were saved.</t>
   </si>
@@ -1233,10 +1188,6 @@
     <t>• To reach the scientists in time, you would need to drive a vehicle across the ice, past the fishermen</t>
   </si>
   <si>
-    <t xml:space="preserve">The 2 fishermen on the south end lived.
-The   </t>
-  </si>
-  <si>
     <t>AD</t>
   </si>
   <si>
@@ -1264,12 +1215,6 @@
   <si>
     <t>Probability  scientists will
 get out of the water: 50%</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Hit the button to divert the gas to Room B, killing the workers there
-OR
-Do nothing: The workers in Room B will live, the group on Room A has a chance of escaping.</t>
   </si>
   <si>
     <t>Consider each of the following scenarios and, for each one, determine if you will:
@@ -1336,6 +1281,61 @@
 Implement the plan: Push the button, putting out the fire but killing the astronauts
 OR
 Do nothing: The astronauts will live, the engineers have a chance of surviving</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> engineers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> people in the car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 4 close scuba divers were saved.
+The </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 6 close scuba divers were saved.
+The </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 5 close scuba divers were saved.
+The </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2 close scuba divers were saved.
+The </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scientists at the north end of the lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 7 fishermen on the south end lived.
+The </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 3 fishermen on the south end lived.
+The </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2 fishermen on the south end lived.
+The </t>
+  </si>
+  <si>
+    <t>The 7 fishermen on the south end died.
+The 9 scientists on the north end were saved.</t>
+  </si>
+  <si>
+    <t>The 2 fishermen on the south end died.
+The 7 scientists on the north end were saved.</t>
+  </si>
+  <si>
+    <t>The 2 fishermen on the south end died.
+The 5 scientists on the north end were saved.</t>
+  </si>
+  <si>
+    <t>Consider each of the following scenarios and, for each one, determine if you will:
+Implement the plan: Hit the button to divert the gas to Room B, killing the workers there
+OR
+Do nothing: The workers in Room B will live, the workers in Room A have a chance of escaping.</t>
   </si>
 </sst>
 </file>
@@ -2145,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -2362,7 +2362,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>40</v>
@@ -2394,7 +2394,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>47</v>
@@ -2426,7 +2426,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>47</v>
@@ -2458,7 +2458,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>56</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="11" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -2490,7 +2490,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>47</v>
@@ -2522,7 +2522,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
@@ -2554,7 +2554,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>69</v>
@@ -2586,7 +2586,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>63</v>
@@ -2618,7 +2618,7 @@
         <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>79</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -2650,7 +2650,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>82</v>
@@ -2671,7 +2671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>88</v>
@@ -2697,13 +2697,13 @@
         <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>93</v>
@@ -2729,13 +2729,13 @@
         <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>95</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
@@ -2761,15 +2761,15 @@
         <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="B20" t="s">
         <v>96</v>
@@ -2778,7 +2778,7 @@
         <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>100</v>
@@ -2793,15 +2793,15 @@
         <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B21" t="s">
         <v>102</v>
@@ -2810,7 +2810,7 @@
         <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>93</v>
@@ -2825,13 +2825,13 @@
         <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>107</v>
@@ -2863,7 +2863,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>111</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>107</v>
@@ -2895,7 +2895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>117</v>
@@ -2927,7 +2927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>121</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>122</v>
@@ -2959,9 +2959,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B26" t="s">
         <v>112</v>
@@ -2970,7 +2970,7 @@
         <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>117</v>
@@ -2991,24 +2991,24 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -3017,10 +3017,10 @@
         <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="J27" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K27">
         <v>2.1</v>
@@ -3028,28 +3028,28 @@
       <c r="L27">
         <v>3</v>
       </c>
-      <c r="M27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -3058,10 +3058,10 @@
         <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="J28" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3069,28 +3069,28 @@
       <c r="L28">
         <v>7</v>
       </c>
-      <c r="M28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>127</v>
+        <v>349</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -3099,10 +3099,10 @@
         <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="J29" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3110,28 +3110,28 @@
       <c r="L29">
         <v>2</v>
       </c>
-      <c r="M29" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -3140,10 +3140,10 @@
         <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="J30" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="K30">
         <v>2.4500000000000002</v>
@@ -3151,28 +3151,28 @@
       <c r="L30">
         <v>2</v>
       </c>
-      <c r="M30" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="G31">
         <v>9</v>
@@ -3181,10 +3181,10 @@
         <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="J31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K31">
         <v>5.85</v>
@@ -3192,28 +3192,28 @@
       <c r="L31">
         <v>7</v>
       </c>
-      <c r="M31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -3222,30 +3222,30 @@
         <v>65</v>
       </c>
       <c r="I32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -3254,30 +3254,30 @@
         <v>65</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G34">
         <v>13</v>
@@ -3286,30 +3286,30 @@
         <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G35">
         <v>9</v>
@@ -3318,30 +3318,30 @@
         <v>35</v>
       </c>
       <c r="I35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -3350,30 +3350,30 @@
         <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G37">
         <v>8</v>
@@ -3382,30 +3382,30 @@
         <v>35</v>
       </c>
       <c r="I37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -3414,30 +3414,30 @@
         <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G39">
         <v>7</v>
@@ -3446,30 +3446,30 @@
         <v>50</v>
       </c>
       <c r="I39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G40">
         <v>9</v>
@@ -3478,30 +3478,30 @@
         <v>65</v>
       </c>
       <c r="I40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -3510,30 +3510,30 @@
         <v>50</v>
       </c>
       <c r="I41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G42">
         <v>11</v>
@@ -3542,30 +3542,30 @@
         <v>35</v>
       </c>
       <c r="I42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -3574,30 +3574,30 @@
         <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -3606,30 +3606,30 @@
         <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G45">
         <v>8</v>
@@ -3638,30 +3638,30 @@
         <v>65</v>
       </c>
       <c r="I45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -3670,30 +3670,30 @@
         <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G47">
         <v>13</v>
@@ -3702,30 +3702,30 @@
         <v>65</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G48">
         <v>9</v>
@@ -3734,30 +3734,30 @@
         <v>50</v>
       </c>
       <c r="I48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -3766,30 +3766,30 @@
         <v>35</v>
       </c>
       <c r="I49" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -3798,30 +3798,30 @@
         <v>65</v>
       </c>
       <c r="I50" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -3830,30 +3830,30 @@
         <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B52" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -3862,30 +3862,30 @@
         <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J52" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>203</v>
+        <v>342</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -3894,30 +3894,30 @@
         <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J53" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G54">
         <v>7</v>
@@ -3926,30 +3926,30 @@
         <v>65</v>
       </c>
       <c r="I54" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J54" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="G55">
         <v>8</v>
@@ -3958,30 +3958,30 @@
         <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J55" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -3990,30 +3990,30 @@
         <v>65</v>
       </c>
       <c r="I56" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J56" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G57">
         <v>10</v>
@@ -4022,30 +4022,30 @@
         <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="J57" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G58">
         <v>8</v>
@@ -4054,30 +4054,30 @@
         <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="J58" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -4086,30 +4086,30 @@
         <v>65</v>
       </c>
       <c r="I59" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="J59" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G60">
         <v>6</v>
@@ -4118,30 +4118,30 @@
         <v>35</v>
       </c>
       <c r="I60" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="J60" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G61">
         <v>10</v>
@@ -4150,30 +4150,30 @@
         <v>35</v>
       </c>
       <c r="I61" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="J61" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G62">
         <v>10</v>
@@ -4182,30 +4182,30 @@
         <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="J62" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="G63">
         <v>6</v>
@@ -4214,30 +4214,30 @@
         <v>65</v>
       </c>
       <c r="I63" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="J63" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G64">
         <v>8</v>
@@ -4246,30 +4246,30 @@
         <v>65</v>
       </c>
       <c r="I64" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="J64" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G65">
         <v>11</v>
@@ -4278,30 +4278,30 @@
         <v>35</v>
       </c>
       <c r="I65" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="J65" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G66">
         <v>7</v>
@@ -4310,10 +4310,10 @@
         <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="J66" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
+++ b/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
@@ -1141,10 +1141,6 @@
 get out of the water: 35%</t>
   </si>
   <si>
-    <t>• There is a group of ice fishermen towards the north side of a large frozen lake
-• A group of scientists are on the south side of the lake drilling ice cores</t>
-  </si>
-  <si>
     <t>Plan: Drive to the scientists, causing the fishermen to fall into the water and die
 Do nothing: The fishermen will live,  the scientists may get out of the water in time</t>
   </si>
@@ -1336,6 +1332,10 @@
 Implement the plan: Hit the button to divert the gas to Room B, killing the workers there
 OR
 Do nothing: The workers in Room B will live, the workers in Room A have a chance of escaping.</t>
+  </si>
+  <si>
+    <t>• There is a group of ice fishermen towards the south side of a large frozen lake
+• A group of scientists are on the north side of the lake drilling ice cores</t>
   </si>
 </sst>
 </file>
@@ -2147,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="11" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="21" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B21" t="s">
         <v>102</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="26" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B26" t="s">
         <v>112</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="27" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>303</v>
@@ -3002,13 +3002,13 @@
         <v>304</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -3017,10 +3017,10 @@
         <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K27">
         <v>2.1</v>
@@ -3029,27 +3029,27 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -3058,10 +3058,10 @@
         <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3070,27 +3070,27 @@
         <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>304</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -3099,10 +3099,10 @@
         <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3111,27 +3111,27 @@
         <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -3140,10 +3140,10 @@
         <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K30">
         <v>2.4500000000000002</v>
@@ -3152,27 +3152,27 @@
         <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G31">
         <v>9</v>
@@ -3181,10 +3181,10 @@
         <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K31">
         <v>5.85</v>
@@ -3193,7 +3193,7 @@
         <v>7</v>
       </c>
       <c r="P31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="210" x14ac:dyDescent="0.25">
@@ -3326,7 +3326,7 @@
     </row>
     <row r="36" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s">
         <v>145</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="41" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>155</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="46" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s">
         <v>177</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="51" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>195</v>
@@ -3850,7 +3850,7 @@
         <v>295</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>200</v>
@@ -3882,7 +3882,7 @@
         <v>295</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>204</v>
@@ -3914,7 +3914,7 @@
         <v>295</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>207</v>
@@ -3946,7 +3946,7 @@
         <v>295</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>210</v>
@@ -3978,7 +3978,7 @@
         <v>295</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>214</v>
@@ -4022,7 +4022,7 @@
         <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J57" t="s">
         <v>221</v>
@@ -4054,7 +4054,7 @@
         <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J58" t="s">
         <v>226</v>
@@ -4086,7 +4086,7 @@
         <v>65</v>
       </c>
       <c r="I59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J59" t="s">
         <v>226</v>
@@ -4118,7 +4118,7 @@
         <v>35</v>
       </c>
       <c r="I60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J60" t="s">
         <v>221</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="61" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s">
         <v>217</v>
@@ -4150,7 +4150,7 @@
         <v>35</v>
       </c>
       <c r="I61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J61" t="s">
         <v>232</v>
@@ -4182,7 +4182,7 @@
         <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J62" t="s">
         <v>239</v>
@@ -4214,7 +4214,7 @@
         <v>65</v>
       </c>
       <c r="I63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J63" t="s">
         <v>245</v>
@@ -4246,7 +4246,7 @@
         <v>65</v>
       </c>
       <c r="I64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J64" t="s">
         <v>250</v>
@@ -4278,7 +4278,7 @@
         <v>35</v>
       </c>
       <c r="I65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J65" t="s">
         <v>245</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="66" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B66" t="s">
         <v>254</v>
@@ -4310,7 +4310,7 @@
         <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J66" t="s">
         <v>250</v>

--- a/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
+++ b/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
@@ -2147,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
+++ b/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
@@ -881,10 +881,6 @@
 Do nothing: The astronauts will live, the engineers have a chance of surviving</t>
   </si>
   <si>
-    <t xml:space="preserve">The 7 astronaunts lived.
-The </t>
-  </si>
-  <si>
     <t>The 7 astronauts died.
 The 10 engineers were saved.</t>
   </si>
@@ -903,10 +899,6 @@
 extinguished in time: 65%</t>
   </si>
   <si>
-    <t xml:space="preserve">The 3 astronaunts lived.
-The </t>
-  </si>
-  <si>
     <t>The 3 astronauts died.
 The 6 engineers were saved.</t>
   </si>
@@ -919,10 +911,6 @@
   </si>
   <si>
     <t>Engineers near the cargo bay: 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 4 astronaunts lived.
-The </t>
   </si>
   <si>
     <t>The 4 astronauts died.
@@ -1336,6 +1324,18 @@
   <si>
     <t>• There is a group of ice fishermen towards the south side of a large frozen lake
 • A group of scientists are on the north side of the lake drilling ice cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 7 astronauts lived.
+The </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 3 astronauts lived.
+The </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 4 astronauts lived.
+The </t>
   </si>
 </sst>
 </file>
@@ -2147,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -2362,7 +2362,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>40</v>
@@ -2394,7 +2394,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>47</v>
@@ -2426,7 +2426,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>47</v>
@@ -2458,7 +2458,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>56</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="11" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -2490,7 +2490,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>47</v>
@@ -2522,7 +2522,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
@@ -2554,7 +2554,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>69</v>
@@ -2586,7 +2586,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>63</v>
@@ -2618,7 +2618,7 @@
         <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>79</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -2650,7 +2650,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>82</v>
@@ -2682,7 +2682,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>88</v>
@@ -2697,10 +2697,10 @@
         <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="180" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>93</v>
@@ -2729,10 +2729,10 @@
         <v>65</v>
       </c>
       <c r="I18" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="180" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
@@ -2761,15 +2761,15 @@
         <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
         <v>96</v>
@@ -2778,7 +2778,7 @@
         <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>100</v>
@@ -2793,15 +2793,15 @@
         <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>102</v>
@@ -2810,7 +2810,7 @@
         <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>93</v>
@@ -2825,10 +2825,10 @@
         <v>50</v>
       </c>
       <c r="I21" t="s">
+        <v>256</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="180" x14ac:dyDescent="0.25">
@@ -2842,7 +2842,7 @@
         <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>107</v>
@@ -2874,7 +2874,7 @@
         <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>107</v>
@@ -2906,7 +2906,7 @@
         <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>117</v>
@@ -2938,7 +2938,7 @@
         <v>121</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>122</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="26" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
         <v>112</v>
@@ -2970,7 +2970,7 @@
         <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>117</v>
@@ -2993,22 +2993,22 @@
     </row>
     <row r="27" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -3017,10 +3017,10 @@
         <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J27" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K27">
         <v>2.1</v>
@@ -3029,27 +3029,27 @@
         <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -3058,10 +3058,10 @@
         <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3070,27 +3070,27 @@
         <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -3099,10 +3099,10 @@
         <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3111,27 +3111,27 @@
         <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -3140,10 +3140,10 @@
         <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K30">
         <v>2.4500000000000002</v>
@@ -3152,27 +3152,27 @@
         <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="G31">
         <v>9</v>
@@ -3181,10 +3181,10 @@
         <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K31">
         <v>5.85</v>
@@ -3193,7 +3193,7 @@
         <v>7</v>
       </c>
       <c r="P31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="210" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>130</v>
@@ -3225,7 +3225,7 @@
         <v>132</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="210" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>135</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>136</v>
@@ -3257,7 +3257,7 @@
         <v>132</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
         <v>140</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>136</v>
@@ -3289,7 +3289,7 @@
         <v>132</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="210" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>130</v>
@@ -3321,12 +3321,12 @@
         <v>132</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s">
         <v>145</v>
@@ -3335,7 +3335,7 @@
         <v>140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>146</v>
@@ -3353,7 +3353,7 @@
         <v>132</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
@@ -3373,7 +3373,7 @@
         <v>152</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G37">
         <v>8</v>
@@ -3385,7 +3385,7 @@
         <v>153</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="135" x14ac:dyDescent="0.25">
@@ -3405,7 +3405,7 @@
         <v>157</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -3417,7 +3417,7 @@
         <v>153</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="135" x14ac:dyDescent="0.25">
@@ -3437,7 +3437,7 @@
         <v>152</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G39">
         <v>7</v>
@@ -3449,7 +3449,7 @@
         <v>153</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="135" x14ac:dyDescent="0.25">
@@ -3469,7 +3469,7 @@
         <v>163</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G40">
         <v>9</v>
@@ -3481,12 +3481,12 @@
         <v>153</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>155</v>
@@ -3501,7 +3501,7 @@
         <v>164</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -3513,7 +3513,7 @@
         <v>153</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -3527,13 +3527,13 @@
         <v>167</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G42">
         <v>11</v>
@@ -3545,12 +3545,12 @@
         <v>169</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s">
         <v>170</v>
@@ -3559,13 +3559,13 @@
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -3577,12 +3577,12 @@
         <v>169</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s">
         <v>173</v>
@@ -3591,13 +3591,13 @@
         <v>174</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -3609,12 +3609,12 @@
         <v>169</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B45" t="s">
         <v>175</v>
@@ -3623,13 +3623,13 @@
         <v>167</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G45">
         <v>8</v>
@@ -3641,12 +3641,12 @@
         <v>169</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s">
         <v>177</v>
@@ -3655,13 +3655,13 @@
         <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -3673,12 +3673,12 @@
         <v>169</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>178</v>
@@ -3687,7 +3687,7 @@
         <v>179</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>180</v>
@@ -3705,7 +3705,7 @@
         <v>182</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>185</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>186</v>
@@ -3737,7 +3737,7 @@
         <v>182</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -3751,7 +3751,7 @@
         <v>189</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>190</v>
@@ -3769,7 +3769,7 @@
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -3783,7 +3783,7 @@
         <v>185</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>186</v>
@@ -3801,12 +3801,12 @@
         <v>182</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>195</v>
@@ -3815,7 +3815,7 @@
         <v>179</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>190</v>
@@ -3833,7 +3833,7 @@
         <v>182</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -3847,10 +3847,10 @@
         <v>199</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>200</v>
@@ -3862,7 +3862,7 @@
         <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J52" t="s">
         <v>201</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="53" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s">
         <v>202</v>
@@ -3879,10 +3879,10 @@
         <v>203</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>204</v>
@@ -3894,7 +3894,7 @@
         <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J53" t="s">
         <v>201</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="54" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s">
         <v>205</v>
@@ -3911,10 +3911,10 @@
         <v>206</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>207</v>
@@ -3926,7 +3926,7 @@
         <v>65</v>
       </c>
       <c r="I54" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J54" t="s">
         <v>208</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="55" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B55" t="s">
         <v>209</v>
@@ -3943,10 +3943,10 @@
         <v>206</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>210</v>
@@ -3958,7 +3958,7 @@
         <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J55" t="s">
         <v>211</v>
@@ -3975,10 +3975,10 @@
         <v>199</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>214</v>
@@ -3990,7 +3990,7 @@
         <v>65</v>
       </c>
       <c r="I56" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J56" t="s">
         <v>215</v>
@@ -4004,7 +4004,7 @@
         <v>217</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>218</v>
@@ -4022,7 +4022,7 @@
         <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J57" t="s">
         <v>221</v>
@@ -4036,7 +4036,7 @@
         <v>223</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>218</v>
@@ -4054,7 +4054,7 @@
         <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J58" t="s">
         <v>226</v>
@@ -4068,7 +4068,7 @@
         <v>84</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>218</v>
@@ -4086,7 +4086,7 @@
         <v>65</v>
       </c>
       <c r="I59" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J59" t="s">
         <v>226</v>
@@ -4100,7 +4100,7 @@
         <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>218</v>
@@ -4118,7 +4118,7 @@
         <v>35</v>
       </c>
       <c r="I60" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J60" t="s">
         <v>221</v>
@@ -4126,13 +4126,13 @@
     </row>
     <row r="61" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s">
         <v>217</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>218</v>
@@ -4150,7 +4150,7 @@
         <v>35</v>
       </c>
       <c r="I61" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J61" t="s">
         <v>232</v>
@@ -4170,10 +4170,10 @@
         <v>236</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G62">
         <v>10</v>
@@ -4182,30 +4182,30 @@
         <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" t="s">
         <v>240</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>243</v>
+        <v>349</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G63">
         <v>6</v>
@@ -4214,30 +4214,30 @@
         <v>65</v>
       </c>
       <c r="I63" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G64">
         <v>8</v>
@@ -4246,18 +4246,18 @@
         <v>65</v>
       </c>
       <c r="I64" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>235</v>
@@ -4266,10 +4266,10 @@
         <v>236</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>243</v>
+        <v>349</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G65">
         <v>11</v>
@@ -4278,30 +4278,30 @@
         <v>35</v>
       </c>
       <c r="I65" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G66">
         <v>7</v>
@@ -4310,10 +4310,10 @@
         <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J66" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
+++ b/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
@@ -230,11 +230,6 @@
 The 5 workers in Room A were saved.</t>
   </si>
   <si>
-    <t xml:space="preserve">• You are operating a crane in front of a tall bridge when an earthquake hits
-• As a result of the earthquake, a gap has formed in the bridge, and a bus carrying a number of people is now partially hanging off of this gap in the bridge
-</t>
-  </si>
-  <si>
     <t>People on bus: 7</t>
   </si>
   <si>
@@ -591,11 +586,6 @@
 The  </t>
   </si>
   <si>
-    <t xml:space="preserve"> • There is an emergency access hatch between the upper and lower sections of the ship
-• You can press an emergency switch, which would open the hatch but in doing so would crush and kill the crewmembers who are working below it
-</t>
-  </si>
-  <si>
     <t>Passengers in the
 submarine: 7</t>
   </si>
@@ -682,10 +672,6 @@
   </si>
   <si>
     <t xml:space="preserve"> people in the swimming pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•There is a sizeable rock on the ground near you, which you can throw at the wire to redirect where it falls
-</t>
   </si>
   <si>
     <t>People in the swimming 
@@ -1336,6 +1322,17 @@
   <si>
     <t xml:space="preserve">The 4 astronauts lived.
 The </t>
+  </si>
+  <si>
+    <t>• You are operating a crane in front of a tall bridge when an earthquake hits
+• As a result of the earthquake, a gap has formed in the bridge, and a bus carrying a number of people is now partially hanging off of this gap in the bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • There is an emergency access hatch between the upper and lower sections of the ship
+• You can press an emergency switch, which would open the hatch but in doing so would crush and kill the crewmembers who are working below it</t>
+  </si>
+  <si>
+    <t>•There is a sizeable rock on the ground near you, which you can throw at the wire to redirect where it falls</t>
   </si>
 </sst>
 </file>
@@ -1819,11 +1816,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2145,21 +2143,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="100.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.140625" customWidth="1"/>
     <col min="9" max="9" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2191,11 +2190,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2210,24 +2209,32 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2242,24 +2249,32 @@
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>9</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2274,24 +2289,32 @@
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>50</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2306,24 +2329,32 @@
       <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>65</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2338,31 +2369,39 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>65</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>40</v>
@@ -2370,31 +2409,39 @@
       <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>47</v>
@@ -2402,31 +2449,39 @@
       <c r="F8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>47</v>
@@ -2434,31 +2489,39 @@
       <c r="F9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>65</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>56</v>
@@ -2466,31 +2529,39 @@
       <c r="F10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>50</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>47</v>
@@ -2498,1823 +2569,2256 @@
       <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>65</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2">
+        <v>65</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <v>65</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="2">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>50</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>35</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="2">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2">
+        <v>50</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12">
+      <c r="E22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="2">
         <v>7</v>
       </c>
-      <c r="H12">
+      <c r="H23" s="2">
+        <v>35</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>65</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2">
+        <v>65</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="2">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2">
+        <v>35</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2">
+        <v>35</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>3</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2">
         <v>50</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I28" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="2">
+        <v>7</v>
+      </c>
+      <c r="L28" s="2">
+        <v>7</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>50</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2">
+        <v>35</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G31" s="2">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2">
         <v>65</v>
       </c>
-      <c r="J12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="I31" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K31" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="L31" s="2">
+        <v>7</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2">
+        <v>65</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="2">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>65</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="2">
+        <v>13</v>
+      </c>
+      <c r="H34" s="2">
+        <v>35</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="2">
+        <v>9</v>
+      </c>
+      <c r="H35" s="2">
+        <v>35</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="2">
+        <v>6</v>
+      </c>
+      <c r="H36" s="2">
+        <v>50</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" s="2">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2">
+        <v>35</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="2">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2">
+        <v>50</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2">
+        <v>50</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="2">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2">
+        <v>65</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2">
+        <v>50</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="2">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2">
+        <v>35</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2">
+        <v>50</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" s="2">
+        <v>7</v>
+      </c>
+      <c r="H44" s="2">
+        <v>35</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="2">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2">
+        <v>65</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G46" s="2">
+        <v>3</v>
+      </c>
+      <c r="H46" s="2">
+        <v>65</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="2">
+        <v>13</v>
+      </c>
+      <c r="H47" s="2">
+        <v>65</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="2">
+        <v>9</v>
+      </c>
+      <c r="H48" s="2">
+        <v>50</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="2">
+        <v>9</v>
+      </c>
+      <c r="H49" s="2">
+        <v>35</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G50" s="2">
+        <v>7</v>
+      </c>
+      <c r="H50" s="2">
+        <v>65</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="2">
+        <v>6</v>
+      </c>
+      <c r="H51" s="2">
+        <v>50</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="2">
+        <v>10</v>
+      </c>
+      <c r="H52" s="2">
+        <v>35</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2">
+        <v>35</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="2">
+        <v>7</v>
+      </c>
+      <c r="H54" s="2">
+        <v>65</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" s="2">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2">
+        <v>50</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G56" s="2">
+        <v>6</v>
+      </c>
+      <c r="H56" s="2">
+        <v>65</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G57" s="2">
+        <v>10</v>
+      </c>
+      <c r="H57" s="2">
+        <v>50</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G58" s="2">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2">
+        <v>35</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="2">
+        <v>4</v>
+      </c>
+      <c r="H59" s="2">
+        <v>65</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="60" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13">
+      <c r="C60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" s="2">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2">
+        <v>35</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="2">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2">
+        <v>35</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+    </row>
+    <row r="62" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G62" s="2">
+        <v>10</v>
+      </c>
+      <c r="H62" s="2">
+        <v>35</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G63" s="2">
+        <v>6</v>
+      </c>
+      <c r="H63" s="2">
         <v>65</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I63" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+    </row>
+    <row r="64" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8</v>
+      </c>
+      <c r="H64" s="2">
         <v>65</v>
       </c>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14">
+      <c r="I64" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G65" s="2">
+        <v>11</v>
+      </c>
+      <c r="H65" s="2">
         <v>35</v>
       </c>
-      <c r="I14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>65</v>
-      </c>
-      <c r="I15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16">
+      <c r="I65" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G66" s="2">
         <v>7</v>
       </c>
-      <c r="H16">
+      <c r="H66" s="2">
         <v>50</v>
       </c>
-      <c r="I16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17">
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>256</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>65</v>
-      </c>
-      <c r="I18" t="s">
-        <v>256</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>256</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <v>35</v>
-      </c>
-      <c r="I20" t="s">
-        <v>256</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21">
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>256</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>50</v>
-      </c>
-      <c r="I22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23">
-        <v>7</v>
-      </c>
-      <c r="H23">
-        <v>35</v>
-      </c>
-      <c r="I23" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>65</v>
-      </c>
-      <c r="I24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>65</v>
-      </c>
-      <c r="I25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26">
-        <v>7</v>
-      </c>
-      <c r="H26">
-        <v>35</v>
-      </c>
-      <c r="I26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>35</v>
-      </c>
-      <c r="I27" t="s">
-        <v>339</v>
-      </c>
-      <c r="J27" t="s">
-        <v>305</v>
-      </c>
-      <c r="K27">
-        <v>2.1</v>
-      </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-      <c r="P27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G28">
-        <v>14</v>
-      </c>
-      <c r="H28">
-        <v>50</v>
-      </c>
-      <c r="I28" t="s">
-        <v>339</v>
-      </c>
-      <c r="J28" t="s">
-        <v>311</v>
-      </c>
-      <c r="K28">
-        <v>7</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
-      <c r="P28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>50</v>
-      </c>
-      <c r="I29" t="s">
-        <v>339</v>
-      </c>
-      <c r="J29" t="s">
-        <v>315</v>
-      </c>
-      <c r="K29">
-        <v>2.5</v>
-      </c>
-      <c r="L29">
-        <v>2</v>
-      </c>
-      <c r="P29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
-      <c r="H30">
-        <v>35</v>
-      </c>
-      <c r="I30" t="s">
-        <v>339</v>
-      </c>
-      <c r="J30" t="s">
-        <v>315</v>
-      </c>
-      <c r="K30">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="P30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G31">
-        <v>9</v>
-      </c>
-      <c r="H31">
-        <v>65</v>
-      </c>
-      <c r="I31" t="s">
-        <v>339</v>
-      </c>
-      <c r="J31" t="s">
-        <v>311</v>
-      </c>
-      <c r="K31">
-        <v>5.85</v>
-      </c>
-      <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="P31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>65</v>
-      </c>
-      <c r="I32" t="s">
-        <v>132</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33">
-        <v>65</v>
-      </c>
-      <c r="I33" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34">
-        <v>13</v>
-      </c>
-      <c r="H34">
-        <v>35</v>
-      </c>
-      <c r="I34" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35">
-        <v>9</v>
-      </c>
-      <c r="H35">
-        <v>35</v>
-      </c>
-      <c r="I35" t="s">
-        <v>132</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-      <c r="H36">
-        <v>50</v>
-      </c>
-      <c r="I36" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G37">
-        <v>8</v>
-      </c>
-      <c r="H37">
-        <v>35</v>
-      </c>
-      <c r="I37" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <v>50</v>
-      </c>
-      <c r="I38" t="s">
-        <v>153</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G39">
-        <v>7</v>
-      </c>
-      <c r="H39">
-        <v>50</v>
-      </c>
-      <c r="I39" t="s">
-        <v>153</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G40">
-        <v>9</v>
-      </c>
-      <c r="H40">
-        <v>65</v>
-      </c>
-      <c r="I40" t="s">
-        <v>153</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G41">
-        <v>6</v>
-      </c>
-      <c r="H41">
-        <v>50</v>
-      </c>
-      <c r="I41" t="s">
-        <v>153</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G42">
-        <v>11</v>
-      </c>
-      <c r="H42">
-        <v>35</v>
-      </c>
-      <c r="I42" t="s">
-        <v>169</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
-      </c>
-      <c r="I43" t="s">
-        <v>169</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G44">
-        <v>7</v>
-      </c>
-      <c r="H44">
-        <v>35</v>
-      </c>
-      <c r="I44" t="s">
-        <v>169</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>289</v>
-      </c>
-      <c r="B45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G45">
-        <v>8</v>
-      </c>
-      <c r="H45">
-        <v>65</v>
-      </c>
-      <c r="I45" t="s">
-        <v>169</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>65</v>
-      </c>
-      <c r="I46" t="s">
-        <v>169</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47">
-        <v>13</v>
-      </c>
-      <c r="H47">
-        <v>65</v>
-      </c>
-      <c r="I47" t="s">
-        <v>182</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48">
-        <v>9</v>
-      </c>
-      <c r="H48">
-        <v>50</v>
-      </c>
-      <c r="I48" t="s">
-        <v>182</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>188</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G49">
-        <v>9</v>
-      </c>
-      <c r="H49">
-        <v>35</v>
-      </c>
-      <c r="I49" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G50">
-        <v>7</v>
-      </c>
-      <c r="H50">
-        <v>65</v>
-      </c>
-      <c r="I50" t="s">
-        <v>182</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="I66" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51">
-        <v>6</v>
-      </c>
-      <c r="H51">
-        <v>50</v>
-      </c>
-      <c r="I51" t="s">
-        <v>182</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="H52">
-        <v>35</v>
-      </c>
-      <c r="I52" t="s">
-        <v>293</v>
-      </c>
-      <c r="J52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B53" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G53">
-        <v>5</v>
-      </c>
-      <c r="H53">
-        <v>35</v>
-      </c>
-      <c r="I53" t="s">
-        <v>293</v>
-      </c>
-      <c r="J53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>294</v>
-      </c>
-      <c r="B54" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G54">
-        <v>7</v>
-      </c>
-      <c r="H54">
-        <v>65</v>
-      </c>
-      <c r="I54" t="s">
-        <v>293</v>
-      </c>
-      <c r="J54" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B55" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G55">
-        <v>8</v>
-      </c>
-      <c r="H55">
-        <v>50</v>
-      </c>
-      <c r="I55" t="s">
-        <v>293</v>
-      </c>
-      <c r="J55" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>212</v>
-      </c>
-      <c r="B56" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G56">
-        <v>6</v>
-      </c>
-      <c r="H56">
-        <v>65</v>
-      </c>
-      <c r="I56" t="s">
-        <v>293</v>
-      </c>
-      <c r="J56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B57" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57">
-        <v>50</v>
-      </c>
-      <c r="I57" t="s">
-        <v>334</v>
-      </c>
-      <c r="J57" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B58" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G58">
-        <v>8</v>
-      </c>
-      <c r="H58">
-        <v>35</v>
-      </c>
-      <c r="I58" t="s">
-        <v>334</v>
-      </c>
-      <c r="J58" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G59">
-        <v>4</v>
-      </c>
-      <c r="H59">
-        <v>65</v>
-      </c>
-      <c r="I59" t="s">
-        <v>334</v>
-      </c>
-      <c r="J59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>229</v>
-      </c>
-      <c r="B60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G60">
-        <v>6</v>
-      </c>
-      <c r="H60">
-        <v>35</v>
-      </c>
-      <c r="I60" t="s">
-        <v>334</v>
-      </c>
-      <c r="J60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B61" t="s">
-        <v>217</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G61">
-        <v>10</v>
-      </c>
-      <c r="H61">
-        <v>35</v>
-      </c>
-      <c r="I61" t="s">
-        <v>334</v>
-      </c>
-      <c r="J61" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B62" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G62">
-        <v>10</v>
-      </c>
-      <c r="H62">
-        <v>35</v>
-      </c>
-      <c r="I62" t="s">
-        <v>333</v>
-      </c>
-      <c r="J62" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B63" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G63">
-        <v>6</v>
-      </c>
-      <c r="H63">
-        <v>65</v>
-      </c>
-      <c r="I63" t="s">
-        <v>333</v>
-      </c>
-      <c r="J63" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="J66" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B64" t="s">
-        <v>245</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G64">
-        <v>8</v>
-      </c>
-      <c r="H64">
-        <v>65</v>
-      </c>
-      <c r="I64" t="s">
-        <v>333</v>
-      </c>
-      <c r="J64" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>248</v>
-      </c>
-      <c r="B65" t="s">
-        <v>249</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G65">
-        <v>11</v>
-      </c>
-      <c r="H65">
-        <v>35</v>
-      </c>
-      <c r="I65" t="s">
-        <v>333</v>
-      </c>
-      <c r="J65" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B66" t="s">
-        <v>251</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G66">
-        <v>7</v>
-      </c>
-      <c r="H66">
-        <v>50</v>
-      </c>
-      <c r="I66" t="s">
-        <v>333</v>
-      </c>
-      <c r="J66" t="s">
-        <v>247</v>
-      </c>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
+++ b/Moral Self-Regulation/PracticeMoralSelfReg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="353">
   <si>
     <t>PracticeDilemmas</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>sureGroupText</t>
-  </si>
-  <si>
-    <t>• You are the head of a safety crew that has been alerted about a group of skydivers that is wearing defective parachutes and is currently in a freefall 
-• You've arrived in time to see that a group of divers is holding onto one another and will fall to their death a few feet to your right unless your crew's trampoline is moved beneath them</t>
   </si>
   <si>
     <t>Skydivers on right: 6</t>
@@ -80,10 +76,6 @@
     <t>Skydivers on the left: 3</t>
   </si>
   <si>
-    <t>• Your crew sees a smaller group of divers apart from the rest who are much closer to reaching the ground, and instinctively moves a few feet to the left to catch them
-• You know that there won't be enough time to reach the group on the right if you wait to catch the group on the left</t>
-  </si>
-  <si>
     <t>Skydivers on right: 9</t>
   </si>
   <si>
@@ -102,10 +94,6 @@
     <t>Skydivers on the left: 4</t>
   </si>
   <si>
-    <t>• If nothing is done, the safety crew will catch the divers to the left, avoiding their death, but the separate group of divers will land on the ground, causing their deaths
-• You can re-direct your crew to the right, preventing the death of the group, but the divers on the left won't be caught</t>
-  </si>
-  <si>
     <t>Skydivers on right: 5</t>
   </si>
   <si>
@@ -120,10 +108,6 @@
     <t>Skydivers on the left: 2</t>
   </si>
   <si>
-    <t>• You also know that there is a chance that one of the parachutes of the group will still open in time to prevent all of their deaths
-• There is no chance that the parachute will open for the one diver, given how close he is to the ground</t>
-  </si>
-  <si>
     <t>Skydivers on right: 4</t>
   </si>
   <si>
@@ -149,10 +133,6 @@
     <t>Skydivers on the left: 5</t>
   </si>
   <si>
-    <t>• There has been an accident in the basement of an office building
-• A pipe has broken and is releasing a lethal gas into the building's ventilation system</t>
-  </si>
-  <si>
     <t>Workers in Room A: 5</t>
   </si>
   <si>
@@ -173,10 +153,6 @@
     <t>Workers in Room B: 3</t>
   </si>
   <si>
-    <t>• If nothing is done, the gas will travel upward to Room A and cause the death of all workers there
-• You are the building manager</t>
-  </si>
-  <si>
     <t>Workers in Room A: 10</t>
   </si>
   <si>
@@ -194,10 +170,6 @@
     <t>Workers in Room B: 4</t>
   </si>
   <si>
-    <t>• You know that the only way to avoid the deaths of the workers in Room A is to block the main vent immediately by hitting a button that will close one of the vent doors
-• You also know that if you close the vent door the gas will be diverted into a different room, Room B, and cause the death of the workers there</t>
-  </si>
-  <si>
     <t>Workers in Room A: 6</t>
   </si>
   <si>
@@ -208,10 +180,6 @@
 The 6 workers in Room A were saved.</t>
   </si>
   <si>
-    <t>• You are also aware that there is a chance that the workers in Room A will escape before the gas reaches them
-• This would be impossible for the workers in Room B</t>
-  </si>
-  <si>
     <t>Workers in Room A: 12</t>
   </si>
   <si>
@@ -251,10 +219,6 @@
     <t>People in the car: 2</t>
   </si>
   <si>
-    <t>• If nothing is done, the bus will soon plummet and all of these people will be killed
-• You know that you can move your crane in a way to push the bus back onto the bridge, avoiding  the deaths of all the people on board</t>
-  </si>
-  <si>
     <t>People on bus: 9</t>
   </si>
   <si>
@@ -269,10 +233,6 @@
     <t>People in the car: 6</t>
   </si>
   <si>
-    <t>• However, you are also aware that in its current position your crane is supporting one small part of the bridge on which there is currently a single car
-• If you move the crane, this part will certainly collapse and the people in that car will be killed</t>
-  </si>
-  <si>
     <t>People on bus: 6</t>
   </si>
   <si>
@@ -284,10 +244,6 @@
 The 6 people on the bus were saved.</t>
   </si>
   <si>
-    <t xml:space="preserve">• You also know that there is a chance the bus will be able to drive back onto the bridge, preventing the deaths of everyone on board
-• There is no chance that the car will be able to avoid falling if you move your crane </t>
-  </si>
-  <si>
     <t>People on bus: 10</t>
   </si>
   <si>
@@ -317,10 +273,6 @@
     <t>People in the car: 4</t>
   </si>
   <si>
-    <t>• You are driving a rescue boat in the ocean, heading east towards a group of drowning people
-• You receive a distress signal informing you that a small boat has capsized in the opposite direction</t>
-  </si>
-  <si>
     <t>People drowning in the west: 11</t>
   </si>
   <si>
@@ -336,10 +288,6 @@
 The 11 people in the west were saved.</t>
   </si>
   <si>
-    <t>• All of the people aboard the capsized boat are now drowning
-• You know that if you immediately change course and go full speed, bearing west, you will reach these people in time to save them</t>
-  </si>
-  <si>
     <t>People drowning in the west: 10</t>
   </si>
   <si>
@@ -355,10 +303,6 @@
 The 10 people in the west were saved.</t>
   </si>
   <si>
-    <t>• However, if you do this, the people drowning in the east will certainly die
-• If you do nothing and hold your course, the people in the east will be saved, but you will not reach the people to the west in time to save them</t>
-  </si>
-  <si>
     <t>People drowning in the west: 8</t>
   </si>
   <si>
@@ -389,10 +333,6 @@
 The 12 people in the west were saved.</t>
   </si>
   <si>
-    <t>• You are operating the switch at a railroad station when you see an empty, out of control boxcar coming down the main track
-• It is moving so fast that anyone it hits will die immediately</t>
-  </si>
-  <si>
     <t>Repairmen on main track: 6</t>
   </si>
   <si>
@@ -413,10 +353,6 @@
     <t>Repairmen on sidetrack: 3</t>
   </si>
   <si>
-    <t>• The boxcar is headed towards a tunneled section in which a group of repairmen are working
-• You can flip the switch, redirecting the boxcar to a sidetrack on which there is a smaller group of repairman working</t>
-  </si>
-  <si>
     <t>Repairmen on main track: 7</t>
   </si>
   <si>
@@ -427,10 +363,6 @@
 The 7 repairmen on the track were saved.</t>
   </si>
   <si>
-    <t>• If you do nothing, the boxcar will continue toward the repairmen in the tunnel on the main track and kill them all
-• If you hit the switch, the repairmen on the main track will be spared but the other repairman on the sidetrack will be hit by the boxcar and will die</t>
-  </si>
-  <si>
     <t>Repairmen on main track: 5</t>
   </si>
   <si>
@@ -445,10 +377,6 @@
     <t>Repairmen on sidetrack: 2</t>
   </si>
   <si>
-    <t>• You know that there is a chance an alarm on the main track will be triggered in time to alert the repairmen to evacuate before the boxcar arrives
-• There is no such alarm on the sidetrack, and therefore no chance the workmen on the sidetrack would evacuate in time</t>
-  </si>
-  <si>
     <t>Probability of evacuation:  50%</t>
   </si>
   <si>
@@ -470,10 +398,6 @@
 The 7 repairmen on the track were saved.</t>
   </si>
   <si>
-    <t>• There has been a bomb planted in two buildings, drawing from the same set of wires
-• You are a citizen who has found the wires that control the bomb</t>
-  </si>
-  <si>
     <t>Workers in the office building: 4</t>
   </si>
   <si>
@@ -492,10 +416,6 @@
     <t xml:space="preserve"> workers in the office building</t>
   </si>
   <si>
-    <t xml:space="preserve">• The red wire is connected to the bomb in a small office building, which will explode if that wire is cut
-• The green wire is connected to the bomb in a small home, where a family lives, and will explode if that wire is cut </t>
-  </si>
-  <si>
     <t>Workers in the office building: 7</t>
   </si>
   <si>
@@ -511,10 +431,6 @@
 The 7 workers in the office building were saved.</t>
   </si>
   <si>
-    <t xml:space="preserve">• The time on the bomb is counting down, but you have time to cut one of the wires without risking harm to yourself 
-• If you do nothing, the bomb will default to blow up the office building  </t>
-  </si>
-  <si>
     <t>Workers in the office building: 13</t>
   </si>
   <si>
@@ -526,9 +442,6 @@
 The 13 workers in the office building were saved.</t>
   </si>
   <si>
-    <t>• You also know that there is a chance that the Bomb Squad will arrive in time to completely disable the bomb</t>
-  </si>
-  <si>
     <t>Workers in the office building: 9</t>
   </si>
   <si>
@@ -547,10 +460,6 @@
 The 6 workers in the office building were saved.</t>
   </si>
   <si>
-    <t>•You are a worker on a large submarine
-• The upper section of the submarine has a hole in it that is gradually letting water in</t>
-  </si>
-  <si>
     <t>Passengers in the
 submarine: 8</t>
   </si>
@@ -570,10 +479,6 @@
     <t xml:space="preserve"> passengers</t>
   </si>
   <si>
-    <t>• There is a group of passengers in the upper section of the submarine, who are beginning to drown
- • The way out is through the lower section, where a group of crewmembers are working</t>
-  </si>
-  <si>
     <t>Passengers in the
 submarine: 6</t>
   </si>
@@ -590,9 +495,6 @@
 submarine: 7</t>
   </si>
   <si>
-    <t>• There is a chance that one of the passengers will break a window, allowing them to escape and swim to the surface</t>
-  </si>
-  <si>
     <t>Passengers in the
 submarine: 9</t>
   </si>
@@ -609,10 +511,6 @@
 The </t>
   </si>
   <si>
-    <t xml:space="preserve">• You are working in a security room of a zoo and can see all of the exhibits through the security cameras
-• You see that a group of tourists have gone beyond a safety gate and are now stuck in the right side of a lion enclosure, with a lion gradually approaching them </t>
-  </si>
-  <si>
     <t>Tourists in the enclosure: 11</t>
   </si>
   <si>
@@ -690,9 +588,6 @@
 The 9 people in the swimming pool were saved.</t>
   </si>
   <si>
-    <t>•  If you do this, the wire will land on a group of pedestrians on the sidewalk, electrocuting and killing them</t>
-  </si>
-  <si>
     <t>Probability the wire
 will be caught in time: 65%</t>
   </si>
@@ -705,9 +600,6 @@
 The 9 people in the swimming pool were saved.</t>
   </si>
   <si>
-    <t>• However, the electrician might be able to catch the wire before it falls</t>
-  </si>
-  <si>
     <t>People in the swimming 
 pool: 7</t>
   </si>
@@ -724,10 +616,6 @@
 The 6 people in the swimming pool were saved.</t>
   </si>
   <si>
-    <t xml:space="preserve">• You are working on a ship when you see a large group of sharks in the distance heading towards a team of scuba divers
-• You know that when the sharks reach this group they will encircle them and kill them all </t>
-  </si>
-  <si>
     <t>Scuba divers in team: 10</t>
   </si>
   <si>
@@ -790,10 +678,6 @@
     <t>Close scuba divers: 4</t>
   </si>
   <si>
-    <t>• You are standing on a footbridge that is going over train tracks
-• Below you see a car has gotten stuck on the train tracks, and a train is quickly approaching</t>
-  </si>
-  <si>
     <t>People in the car: 10</t>
   </si>
   <si>
@@ -812,10 +696,6 @@
     <t>Pedestrians on the bridge: 5</t>
   </si>
   <si>
-    <t>• There is a small group of pedestrians leaning over the footbridge
-• You know that if you push the pedestrians over the bridge, they will hit the oncoming train, causing it to stop before it reaches the car</t>
-  </si>
-  <si>
     <t>People in the car: 8</t>
   </si>
   <si>
@@ -830,17 +710,10 @@
     <t>Pedestrians on the bridge: 2</t>
   </si>
   <si>
-    <t>• You also know that there is some chance the people in the car will be able to escape before the train comes
-• If you push the pedestrians, they will certainly fall to their deaths</t>
-  </si>
-  <si>
     <t>The 2 pedestrians died,
 The 4 people in the car were saved.</t>
   </si>
   <si>
-    <t>• In order to ensure the people in the car will be saved, you would have to push the pedestrians now</t>
-  </si>
-  <si>
     <t>The 5 pedestrians died,
 The 6 people in the car were saved.</t>
   </si>
@@ -852,10 +725,6 @@
     <t>Pedestrians on the bridge: 3</t>
   </si>
   <si>
-    <t>• Engineers and astronauts are doing maintenance repairs on a space station, and you are overseeing the repairs from a control center on Earth
-•A fire suddenly breaks out in the cargo bay of the space station, adjacent to where the engineers are working</t>
-  </si>
-  <si>
     <t>Engineers near the cargo bay: 10</t>
   </si>
   <si>
@@ -874,10 +743,6 @@
     <t>Astronauts in outer space: 7</t>
   </si>
   <si>
-    <t>• There is a group of astronauts doing repairs outside of the space craft
-•  You know that you could press a button that opens the cargo bay door to open, which would immediately extinguish the fire</t>
-  </si>
-  <si>
     <t>Engineers near the cargo bay: 6</t>
   </si>
   <si>
@@ -892,10 +757,6 @@
     <t>Astronauts in outer space: 3</t>
   </si>
   <si>
-    <t>• If you do this, the impact of flying debris from inside of the cargo bay would kill the astronauts who are working outside of the space craft
-• You also know that there is some chance the engineers may be able to put out the fire before a deadly explosion occurs</t>
-  </si>
-  <si>
     <t>Engineers near the cargo bay: 8</t>
   </si>
   <si>
@@ -906,9 +767,6 @@
     <t>Astronauts in outer space: 4</t>
   </si>
   <si>
-    <t>• To ensure the engineers' safety, you would have to push the button now</t>
-  </si>
-  <si>
     <t>Engineers near the cargo bay: 11</t>
   </si>
   <si>
@@ -986,10 +844,6 @@
 Do nothing: The workers in Room B will live, the workers in Room A have a chance of escaping</t>
   </si>
   <si>
-    <t>• You also know that the only other rescue boat in the area is much further to the west, so it would be unable to reach the people in the east
-• But there is a chance the rescue boat will reach the group drowning to the west</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan: Cut the green wire, blowing up the family in the home
 Do nothing: The family will live, the office workers have a chance of surviving if the Bomb Squad comes </t>
   </si>
@@ -1058,25 +912,10 @@
 Do nothing: The zookeepers will live, the tourists have a chance of escaping up the ladder</t>
   </si>
   <si>
-    <t>• You also see that there are also zookeepers on the left side of the enclosure who are cleaning the area
-• You can release bait to get the lion’s attention using your security console, but you can only direct the lion’s attention in one direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• There is a single ladder in the middle of the enclosure which leads to safety
-•  If you throw the bait in the direction of the zookeepers, the lion will definitely attack and kill the zookeepers, but the tourists will be able to escape to safety </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• However, there is a chance that the tourists will make it to the ladder before the lion reaches them. </t>
-  </si>
-  <si>
     <t>Plan: Throw the rock, redirecting the wire and killing the pedestrians
 Do nothing: The pedestrians will live, the people in the swimming pool have a chance of surviving if the wire is caught</t>
   </si>
   <si>
-    <t>• You also know that there is another group of scuba divers who are closer to you and currently not in the path of the sharks 
-• If you throw bait at this group of divers, the sharks will smell blood and switch trajectory away from the far team of divers, but killing the closer group of divers</t>
-  </si>
-  <si>
     <t>Plan: Throw bait at the close divers, leaving them to get eaten by sharks
 Do nothing: The close divers will live, the far divers have a chance of surviving</t>
   </si>
@@ -1084,17 +923,6 @@
     <t xml:space="preserve"> far scuba divers</t>
   </si>
   <si>
-    <t>• If you throw bait at the close divers, all of the far divers will be spared</t>
-  </si>
-  <si>
-    <t>• You also know that the far divers are carrying an electromagnetic (EM) pulse that will deter the sharks, but given the team's current depth there is only a small chance that the pulse will function 
-• In order to ensure that the group will be spared, you must throw the bait now</t>
-  </si>
-  <si>
-    <t>•There is a live wire dangling from an electric pole
-• There is an electrician at the top of the pole trying to gather the wire before it falls into a pool below, where a group of people are swimming</t>
-  </si>
-  <si>
     <t>Probability the people in the car 
 will be able to escape in time: 35%</t>
   </si>
@@ -1137,10 +965,6 @@
 get out of the water: 50%</t>
   </si>
   <si>
-    <t>•The scientists sent out a distress call because the ice around them started to shatter and they have fallen into the freezing water
-• You are an emergency worker who has been called to rescue the scientists</t>
-  </si>
-  <si>
     <t>The 7 fishermen on the south end died.
 The 14 scientists on the north end were saved.</t>
   </si>
@@ -1155,9 +979,6 @@
 north end of lake: 5</t>
   </si>
   <si>
-    <t>• To reach the scientists in time, you would need to drive a vehicle across the ice, past the fishermen</t>
-  </si>
-  <si>
     <t>AD</t>
   </si>
   <si>
@@ -1172,10 +993,6 @@
 get out of the water: 65%</t>
   </si>
   <si>
-    <t>• If you do this, the weight of the vehicle would cause the ice to crack around the fishermen, causing them to fall into the water and die from the cold
-• You also know that there is a chance that the scientists may be able to climb out of the freezing water before going into shock and dying</t>
-  </si>
-  <si>
     <t>ad</t>
   </si>
   <si>
@@ -1187,72 +1004,6 @@
 get out of the water: 50%</t>
   </si>
   <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan:  Direct your crew to the right, repositioning the trampoline and leaving the skydivers on the left to die 
-OR
-Do nothing: The skydivers on the left will live, the group on the right  has a chance of surviving</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Move your crane to push the bus, certainly killing the people in the car
-OR
-Do nothing: The people in the car will live, the people in the bus have a chance of surviving</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Change your course to head towards the people in the west, leaving the people in the east to die
-OR
-Do nothing: The group in the east will live, the group in the west has a chance of surviving</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Hit the switch, redirecting the boxcar onto the sidetrack, killing the repairmen there
-OR
-Do nothing: The repairmen on the sidetrack will live, the repairmen on the main track have a chance of evacuating</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Drive to the scientists, causing the fishermen to fall into the water and die
-OR
-Do nothing: The fishermen will live,  the scientists may get out of the water in time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Cut the green wire, blowing up the family in the home
-OR
-Do nothing: The family will live, the office workers have a chance of surviving if the Bomb Squad comes </t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Open the hatch, killing the crewmembers there
-OR
-Do nothing: The crewmembers in the lower section will live, the passengers have a chance of escape</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Throw the bait to the left, leaving the zookeepers to die
-OR
-Do nothing: The zookeepers will live, the tourists have a chance of escaping up the ladder</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Plan: Throw the rock, redirecting the wire and killing the pedestrians
-OR
-Do nothing: The pedestrians will live, the people in the swimming pool have a chance of surviving if the wire is caught</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will
-Implement the plan: Push the pedestrians over, causing them to hit the train and die
-OR
-Do nothing: The pedestrians will live, the people in the car have a chance of surviving</t>
-  </si>
-  <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Push the button, putting out the fire but killing the astronauts
-OR
-Do nothing: The astronauts will live, the engineers have a chance of surviving</t>
-  </si>
-  <si>
     <t xml:space="preserve"> engineers</t>
   </si>
   <si>
@@ -1302,16 +1053,6 @@
 The 5 scientists on the north end were saved.</t>
   </si>
   <si>
-    <t>Consider each of the following scenarios and, for each one, determine if you will:
-Implement the plan: Hit the button to divert the gas to Room B, killing the workers there
-OR
-Do nothing: The workers in Room B will live, the workers in Room A have a chance of escaping.</t>
-  </si>
-  <si>
-    <t>• There is a group of ice fishermen towards the south side of a large frozen lake
-• A group of scientists are on the north side of the lake drilling ice cores</t>
-  </si>
-  <si>
     <t xml:space="preserve">The 7 astronauts lived.
 The </t>
   </si>
@@ -1324,15 +1065,244 @@
 The </t>
   </si>
   <si>
-    <t>• You are operating a crane in front of a tall bridge when an earthquake hits
-• As a result of the earthquake, a gap has formed in the bridge, and a bus carrying a number of people is now partially hanging off of this gap in the bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • There is an emergency access hatch between the upper and lower sections of the ship
-• You can press an emergency switch, which would open the hatch but in doing so would crush and kill the crewmembers who are working below it</t>
-  </si>
-  <si>
-    <t>•There is a sizeable rock on the ground near you, which you can throw at the wire to redirect where it falls</t>
+    <t xml:space="preserve"> You are the head of a safety crew that has been alerted about a group of skydivers that is wearing defective parachutes and is currently in a freefall 
+ You've arrived in time to see that a group of divers is holding onto one another and will fall to their death a few feet to your right unless your crew's trampoline is moved beneath them</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your crew sees a smaller group of divers apart from the rest who are much closer to reaching the ground, and instinctively moves a few feet to the left to catch them
+ You know that there won't be enough time to reach the group on the right if you wait to catch the group on the left</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If nothing is done, the safety crew will catch the divers to the left, avoiding their death, but the separate group of divers will land on the ground, causing their deaths
+ You can re-direct your crew to the right, preventing the death of the group, but the divers on the left won't be caught</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You also know that there is a chance that one of the parachutes of the group will still open in time to prevent all of their deaths
+ There is no chance that the parachute will open for the one diver, given how close he is to the ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There has been an accident in the basement of an office building
+ A pipe has broken and is releasing a lethal gas into the building's ventilation system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If nothing is done, the gas will travel upward to Room A and cause the death of all workers there
+ You are the building manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You know that the only way to avoid the deaths of the workers in Room A is to block the main vent immediately by hitting a button that will close one of the vent doors
+ You also know that if you close the vent door the gas will be diverted into a different room, Room B, and cause the death of the workers there</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are also aware that there is a chance that the workers in Room A will escape before the gas reaches them
+ This would be impossible for the workers in Room B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are operating a crane in front of a tall bridge when an earthquake hits
+ As a result of the earthquake, a gap has formed in the bridge, and a bus carrying a number of people is now partially hanging off of this gap in the bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If nothing is done, the bus will soon plummet and all of these people will be killed
+ You know that you can move your crane in a way to push the bus back onto the bridge, avoiding  the deaths of all the people on board</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> However, you are also aware that in its current position your crane is supporting one small part of the bridge on which there is currently a single car
+ If you move the crane, this part will certainly collapse and the people in that car will be killed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You also know that there is a chance the bus will be able to drive back onto the bridge, preventing the deaths of everyone on board
+ There is no chance that the car will be able to avoid falling if you move your crane </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are driving a rescue boat in the ocean, heading east towards a group of drowning people
+ You receive a distress signal informing you that a small boat has capsized in the opposite direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All of the people aboard the capsized boat are now drowning
+ You know that if you immediately change course and go full speed, bearing west, you will reach these people in time to save them</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> However, if you do this, the people drowning in the east will certainly die
+ If you do nothing and hold your course, the people in the east will be saved, but you will not reach the people to the west in time to save them</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You also know that the only other rescue boat in the area is much further to the west, so it would be unable to reach the people in the east
+ But there is a chance the rescue boat will reach the group drowning to the west</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are operating the switch at a railroad station when you see an empty, out of control boxcar coming down the main track
+ It is moving so fast that anyone it hits will die immediately</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The boxcar is headed towards a tunneled section in which a group of repairmen are working
+ You can flip the switch, redirecting the boxcar to a sidetrack on which there is a smaller group of repairman working</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you do nothing, the boxcar will continue toward the repairmen in the tunnel on the main track and kill them all
+ If you hit the switch, the repairmen on the main track will be spared but the other repairman on the sidetrack will be hit by the boxcar and will die</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You know that there is a chance an alarm on the main track will be triggered in time to alert the repairmen to evacuate before the boxcar arrives
+ There is no such alarm on the sidetrack, and therefore no chance the workmen on the sidetrack would evacuate in time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is a group of ice fishermen towards the south side of a large frozen lake
+ A group of scientists are on the north side of the lake drilling ice cores</t>
+  </si>
+  <si>
+    <t>The scientists sent out a distress call because the ice around them started to shatter and they have fallen into the freezing water
+ You are an emergency worker who has been called to rescue the scientists</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To reach the scientists in time, you would need to drive a vehicle across the ice, past the fishermen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you do this, the weight of the vehicle would cause the ice to crack around the fishermen, causing them to fall into the water and die from the cold
+ You also know that there is a chance that the scientists may be able to climb out of the freezing water before going into shock and dying</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There has been a bomb planted in two buildings, drawing from the same set of wires
+ You are a citizen who has found the wires that control the bomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The red wire is connected to the bomb in a small office building, which will explode if that wire is cut
+ The green wire is connected to the bomb in a small home, where a family lives, and will explode if that wire is cut </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The time on the bomb is counting down, but you have time to cut one of the wires without risking harm to yourself 
+ If you do nothing, the bomb will default to blow up the office building  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You also know that there is a chance that the Bomb Squad will arrive in time to completely disable the bomb</t>
+  </si>
+  <si>
+    <t>You are a worker on a large submarine
+ The upper section of the submarine has a hole in it that is gradually letting water in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is a group of passengers in the upper section of the submarine, who are beginning to drown
+  The way out is through the lower section, where a group of crewmembers are working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  There is an emergency access hatch between the upper and lower sections of the ship
+ You can press an emergency switch, which would open the hatch but in doing so would crush and kill the crewmembers who are working below it</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is a chance that one of the passengers will break a window, allowing them to escape and swim to the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are working in a security room of a zoo and can see all of the exhibits through the security cameras
+ You see that a group of tourists have gone beyond a safety gate and are now stuck in the right side of a lion enclosure, with a lion gradually approaching them </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You also see that there are also zookeepers on the left side of the enclosure who are cleaning the area
+ You can release bait to get the lion’s attention using your security console, but you can only direct the lion’s attention in one direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is a single ladder in the middle of the enclosure which leads to safety
+  If you throw the bait in the direction of the zookeepers, the lion will definitely attack and kill the zookeepers, but the tourists will be able to escape to safety </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> However, there is a chance that the tourists will make it to the ladder before the lion reaches them. </t>
+  </si>
+  <si>
+    <t>There is a live wire dangling from an electric pole
+ There is an electrician at the top of the pole trying to gather the wire before it falls into a pool below, where a group of people are swimming</t>
+  </si>
+  <si>
+    <t>There is a sizeable rock on the ground near you, which you can throw at the wire to redirect where it falls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If you do this, the wire will land on a group of pedestrians on the sidewalk, electrocuting and killing them</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> However, the electrician might be able to catch the wire before it falls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are working on a ship when you see a large group of sharks in the distance heading towards a team of scuba divers
+ You know that when the sharks reach this group they will encircle them and kill them all </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You also know that there is another group of scuba divers who are closer to you and currently not in the path of the sharks 
+ If you throw bait at this group of divers, the sharks will smell blood and switch trajectory away from the far team of divers, but killing the closer group of divers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you throw bait at the close divers, all of the far divers will be spared</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You also know that the far divers are carrying an electromagnetic (EM) pulse that will deter the sharks, but given the team's current depth there is only a small chance that the pulse will function 
+ In order to ensure that the group will be spared, you must throw the bait now</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are standing on a footbridge that is going over train tracks
+ Below you see a car has gotten stuck on the train tracks, and a train is quickly approaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is a small group of pedestrians leaning over the footbridge
+ You know that if you push the pedestrians over the bridge, they will hit the oncoming train, causing it to stop before it reaches the car</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You also know that there is some chance the people in the car will be able to escape before the train comes
+ If you push the pedestrians, they will certainly fall to their deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In order to ensure the people in the car will be saved, you would have to push the pedestrians now</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engineers and astronauts are doing maintenance repairs on a space station, and you are overseeing the repairs from a control center on Earth
+A fire suddenly breaks out in the cargo bay of the space station, adjacent to where the engineers are working</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is a group of astronauts doing repairs outside of the space craft
+  You know that you could press a button that opens the cargo bay door to open, which would immediately extinguish the fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you do this, the impact of flying debris from inside of the cargo bay would kill the astronauts who are working outside of the space craft
+ You also know that there is some chance the engineers may be able to put out the fire before a deadly explosion occurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To ensure the engineers' safety, you would have to push the button now</t>
+  </si>
+  <si>
+    <t>MainPicture</t>
+  </si>
+  <si>
+    <t>skydivers.jpg</t>
+  </si>
+  <si>
+    <t>office.jpg</t>
+  </si>
+  <si>
+    <t>bridge.jpg</t>
+  </si>
+  <si>
+    <t>boat.jpg</t>
+  </si>
+  <si>
+    <t>boxcar.jpg</t>
+  </si>
+  <si>
+    <t>lake.jpg</t>
+  </si>
+  <si>
+    <t>bomb.jpg</t>
+  </si>
+  <si>
+    <t>sub.jpg</t>
+  </si>
+  <si>
+    <t>zoo.jpg</t>
+  </si>
+  <si>
+    <t>pool.jpg</t>
+  </si>
+  <si>
+    <t>shark.jpg</t>
+  </si>
+  <si>
+    <t>fbridge.jpg</t>
+  </si>
+  <si>
+    <t>space.jpg</t>
   </si>
 </sst>
 </file>
@@ -2145,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="D62" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,25 +2159,28 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="2" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2">
         <v>6</v>
@@ -2216,13 +2189,15 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2232,22 +2207,22 @@
     </row>
     <row r="3" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="2">
         <v>9</v>
@@ -2256,13 +2231,15 @@
         <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2272,22 +2249,22 @@
     </row>
     <row r="4" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
@@ -2296,13 +2273,15 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2312,22 +2291,22 @@
     </row>
     <row r="5" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
@@ -2336,13 +2315,15 @@
         <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2352,22 +2333,22 @@
     </row>
     <row r="6" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>8</v>
@@ -2376,13 +2357,15 @@
         <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2392,22 +2375,22 @@
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
@@ -2416,13 +2399,15 @@
         <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2432,22 +2417,22 @@
     </row>
     <row r="8" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
         <v>10</v>
@@ -2456,13 +2441,15 @@
         <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2472,22 +2459,22 @@
     </row>
     <row r="9" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
@@ -2496,13 +2483,15 @@
         <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2512,22 +2501,22 @@
     </row>
     <row r="10" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2">
         <v>12</v>
@@ -2536,13 +2525,15 @@
         <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2552,22 +2543,22 @@
     </row>
     <row r="11" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2">
         <v>5</v>
@@ -2576,13 +2567,15 @@
         <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2592,22 +2585,22 @@
     </row>
     <row r="12" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2">
         <v>7</v>
@@ -2616,13 +2609,15 @@
         <v>50</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2632,22 +2627,22 @@
     </row>
     <row r="13" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>296</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2">
         <v>9</v>
@@ -2656,13 +2651,15 @@
         <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2672,22 +2669,22 @@
     </row>
     <row r="14" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2">
         <v>6</v>
@@ -2696,13 +2693,15 @@
         <v>35</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2712,22 +2711,22 @@
     </row>
     <row r="15" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2">
         <v>10</v>
@@ -2736,13 +2735,15 @@
         <v>65</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2752,22 +2753,22 @@
     </row>
     <row r="16" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2">
         <v>7</v>
@@ -2776,13 +2777,15 @@
         <v>50</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2792,22 +2795,22 @@
     </row>
     <row r="17" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G17" s="2">
         <v>11</v>
@@ -2816,13 +2819,15 @@
         <v>50</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2832,22 +2837,22 @@
     </row>
     <row r="18" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
@@ -2856,13 +2861,15 @@
         <v>65</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2872,22 +2879,22 @@
     </row>
     <row r="19" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2">
         <v>8</v>
@@ -2896,13 +2903,15 @@
         <v>50</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2912,22 +2921,22 @@
     </row>
     <row r="20" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2">
         <v>8</v>
@@ -2936,13 +2945,15 @@
         <v>35</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2952,22 +2963,22 @@
     </row>
     <row r="21" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>321</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G21" s="2">
         <v>12</v>
@@ -2976,13 +2987,15 @@
         <v>50</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2992,22 +3005,22 @@
     </row>
     <row r="22" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
@@ -3016,13 +3029,15 @@
         <v>50</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3032,22 +3047,22 @@
     </row>
     <row r="23" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G23" s="2">
         <v>7</v>
@@ -3056,13 +3071,15 @@
         <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3072,22 +3089,22 @@
     </row>
     <row r="24" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
@@ -3096,13 +3113,15 @@
         <v>65</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3112,22 +3131,22 @@
     </row>
     <row r="25" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>306</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
@@ -3136,13 +3155,15 @@
         <v>65</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3152,22 +3173,22 @@
     </row>
     <row r="26" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G26" s="2">
         <v>7</v>
@@ -3176,13 +3197,15 @@
         <v>35</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3192,22 +3215,22 @@
     </row>
     <row r="27" spans="1:18" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
@@ -3216,44 +3239,44 @@
         <v>35</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="K27" s="2">
         <v>2.1</v>
       </c>
-      <c r="L27" s="2">
-        <v>3</v>
+      <c r="L27" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="G28" s="2">
         <v>14</v>
@@ -3262,44 +3285,44 @@
         <v>50</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="K28" s="2">
         <v>7</v>
       </c>
-      <c r="L28" s="2">
-        <v>7</v>
+      <c r="L28" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="G29" s="2">
         <v>5</v>
@@ -3308,44 +3331,44 @@
         <v>50</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="K29" s="2">
         <v>2.5</v>
       </c>
-      <c r="L29" s="2">
-        <v>2</v>
+      <c r="L29" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="G30" s="2">
         <v>7</v>
@@ -3354,44 +3377,44 @@
         <v>35</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="K30" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L30" s="2">
-        <v>2</v>
+      <c r="L30" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>323</v>
+        <v>180</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="G31" s="2">
         <v>9</v>
@@ -3400,44 +3423,44 @@
         <v>65</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="K31" s="2">
         <v>5.85</v>
       </c>
-      <c r="L31" s="2">
-        <v>7</v>
+      <c r="L31" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="210" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -3446,13 +3469,15 @@
         <v>65</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3462,22 +3487,22 @@
     </row>
     <row r="33" spans="1:18" ht="210" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2">
         <v>7</v>
@@ -3486,13 +3511,15 @@
         <v>65</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3502,22 +3529,22 @@
     </row>
     <row r="34" spans="1:18" ht="210" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G34" s="2">
         <v>13</v>
@@ -3526,13 +3553,15 @@
         <v>35</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3542,22 +3571,22 @@
     </row>
     <row r="35" spans="1:18" ht="210" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>141</v>
+        <v>314</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G35" s="2">
         <v>9</v>
@@ -3566,13 +3595,15 @@
         <v>35</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3582,22 +3613,22 @@
     </row>
     <row r="36" spans="1:18" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G36" s="2">
         <v>6</v>
@@ -3606,13 +3637,15 @@
         <v>50</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3622,22 +3655,22 @@
     </row>
     <row r="37" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="G37" s="2">
         <v>8</v>
@@ -3646,13 +3679,15 @@
         <v>35</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3662,22 +3697,22 @@
     </row>
     <row r="38" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
@@ -3686,13 +3721,15 @@
         <v>50</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3702,22 +3739,22 @@
     </row>
     <row r="39" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="G39" s="2">
         <v>7</v>
@@ -3726,13 +3763,15 @@
         <v>50</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3742,22 +3781,22 @@
     </row>
     <row r="40" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="G40" s="2">
         <v>9</v>
@@ -3766,13 +3805,15 @@
         <v>65</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3780,24 +3821,24 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
@@ -3806,13 +3847,15 @@
         <v>50</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3822,22 +3865,22 @@
     </row>
     <row r="42" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="G42" s="2">
         <v>11</v>
@@ -3846,13 +3889,15 @@
         <v>35</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3862,22 +3907,22 @@
     </row>
     <row r="43" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="G43" s="2">
         <v>4</v>
@@ -3886,13 +3931,15 @@
         <v>50</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3902,22 +3949,22 @@
     </row>
     <row r="44" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="G44" s="2">
         <v>7</v>
@@ -3926,13 +3973,15 @@
         <v>35</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3942,22 +3991,22 @@
     </row>
     <row r="45" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G45" s="2">
         <v>8</v>
@@ -3966,13 +4015,15 @@
         <v>65</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3982,22 +4033,22 @@
     </row>
     <row r="46" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>326</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G46" s="2">
         <v>3</v>
@@ -4006,13 +4057,15 @@
         <v>65</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -4022,22 +4075,22 @@
     </row>
     <row r="47" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="G47" s="2">
         <v>13</v>
@@ -4046,13 +4099,15 @@
         <v>65</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -4062,22 +4117,22 @@
     </row>
     <row r="48" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G48" s="2">
         <v>9</v>
@@ -4086,13 +4141,15 @@
         <v>50</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -4102,22 +4159,22 @@
     </row>
     <row r="49" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="G49" s="2">
         <v>9</v>
@@ -4126,13 +4183,15 @@
         <v>35</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -4142,22 +4201,22 @@
     </row>
     <row r="50" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="G50" s="2">
         <v>7</v>
@@ -4166,13 +4225,15 @@
         <v>65</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -4182,22 +4243,22 @@
     </row>
     <row r="51" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G51" s="2">
         <v>6</v>
@@ -4206,13 +4267,15 @@
         <v>50</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -4222,22 +4285,22 @@
     </row>
     <row r="52" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>194</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="G52" s="2">
         <v>10</v>
@@ -4246,13 +4309,15 @@
         <v>35</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -4262,22 +4327,22 @@
     </row>
     <row r="53" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="G53" s="2">
         <v>5</v>
@@ -4286,13 +4351,15 @@
         <v>35</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -4302,22 +4369,22 @@
     </row>
     <row r="54" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="G54" s="2">
         <v>7</v>
@@ -4326,13 +4393,15 @@
         <v>65</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -4342,22 +4411,22 @@
     </row>
     <row r="55" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="G55" s="2">
         <v>8</v>
@@ -4366,13 +4435,15 @@
         <v>50</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -4382,22 +4453,22 @@
     </row>
     <row r="56" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="G56" s="2">
         <v>6</v>
@@ -4406,13 +4477,15 @@
         <v>65</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -4422,22 +4495,22 @@
     </row>
     <row r="57" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="G57" s="2">
         <v>10</v>
@@ -4446,13 +4519,15 @@
         <v>50</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -4462,22 +4537,22 @@
     </row>
     <row r="58" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="G58" s="2">
         <v>8</v>
@@ -4486,13 +4561,15 @@
         <v>35</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="L58" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -4502,22 +4579,22 @@
     </row>
     <row r="59" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="G59" s="2">
         <v>4</v>
@@ -4526,13 +4603,15 @@
         <v>65</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -4542,22 +4621,22 @@
     </row>
     <row r="60" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>226</v>
+        <v>334</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="G60" s="2">
         <v>6</v>
@@ -4566,13 +4645,15 @@
         <v>35</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -4580,24 +4661,24 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>328</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="G61" s="2">
         <v>10</v>
@@ -4606,13 +4687,15 @@
         <v>35</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -4622,22 +4705,22 @@
     </row>
     <row r="62" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="G62" s="2">
         <v>10</v>
@@ -4646,13 +4729,15 @@
         <v>35</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="L62" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -4662,22 +4747,22 @@
     </row>
     <row r="63" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="G63" s="2">
         <v>6</v>
@@ -4686,13 +4771,15 @@
         <v>65</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="L63" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -4702,22 +4789,22 @@
     </row>
     <row r="64" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="G64" s="2">
         <v>8</v>
@@ -4726,13 +4813,15 @@
         <v>65</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="L64" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -4742,22 +4831,22 @@
     </row>
     <row r="65" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>245</v>
+        <v>338</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="G65" s="2">
         <v>11</v>
@@ -4766,13 +4855,15 @@
         <v>35</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="L65" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -4780,24 +4871,24 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>329</v>
+        <v>180</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="G66" s="2">
         <v>7</v>
@@ -4806,13 +4897,15 @@
         <v>50</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="L66" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
